--- a/Java_regular_expression.xlsx
+++ b/Java_regular_expression.xlsx
@@ -364,11 +364,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -376,8 +378,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <u/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -393,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -403,37 +406,28 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -443,7 +437,25 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,29 +470,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -812,362 +806,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="62.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="10" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:2" ht="61.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="31" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="33" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B33" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="34" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="35" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B35" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="36" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B36" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="40" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B40" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="25.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="41" spans="1:2" ht="61.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B41" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="42" spans="1:2" ht="61.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B42" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="43" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B43" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+    <row r="44" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B44" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    <row r="45" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B45" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="46" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B46" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
